--- a/3 & 4 2D Conduction Project.xlsx
+++ b/3 & 4 2D Conduction Project.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malcolm Forbes\Documents\School\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27430"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12015"/>
+    <workbookView xWindow="3140" yWindow="2020" windowWidth="31900" windowHeight="22660"/>
   </bookViews>
   <sheets>
     <sheet name="AT=C" sheetId="1" r:id="rId1"/>
-    <sheet name="Solution" sheetId="2" r:id="rId2"/>
-    <sheet name="Contour" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>A</t>
   </si>
@@ -115,22 +111,7 @@
     <t>T27</t>
   </si>
   <si>
-    <t>T28</t>
-  </si>
-  <si>
-    <t>T29</t>
-  </si>
-  <si>
-    <t>T30</t>
-  </si>
-  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>TSS</t>
-  </si>
-  <si>
-    <t>A^-1</t>
   </si>
   <si>
     <t>k</t>
@@ -160,17 +141,14 @@
     <t>W/m*K</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
     <t>W/m^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,19 +179,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -226,11 +214,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -239,7 +227,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -247,17 +235,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -267,7 +255,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -275,12 +263,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -289,40 +277,40 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -330,22 +318,30 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -360,7 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -368,7 +363,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -479,7 +482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,20 +684,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG40" sqref="AG40"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -792,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -892,12 +895,12 @@
       <c r="AG2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AI2" s="19">
+      <c r="AI2" s="18">
         <f>-1*($C$36/$C$33)*($C$35+$C$34*$C$36/2)</f>
-        <v>-23.459717104434649</v>
+        <v>-462.58232258064515</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -994,12 +997,12 @@
       <c r="AG3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AI3" s="20">
+      <c r="AI3" s="19">
         <f>-1*($C$36/$C$33)*($C$35+$C$34*$C$36)</f>
-        <v>-30.200749362499163</v>
+        <v>-469.32335483870963</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1096,12 +1099,12 @@
       <c r="AG4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="20">
-        <f t="shared" ref="AI4:AI9" si="0">-1*($C$36/$C$33)*($C$35+$C$34*$C$36)</f>
-        <v>-30.200749362499163</v>
+      <c r="AI4" s="19">
+        <f t="shared" ref="AI4:AI8" si="0">-1*($C$36/$C$33)*($C$35+$C$34*$C$36)</f>
+        <v>-469.32335483870963</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1198,12 +1201,12 @@
       <c r="AG5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AI5" s="20">
+      <c r="AI5" s="19">
         <f t="shared" si="0"/>
-        <v>-30.200749362499163</v>
+        <v>-469.32335483870963</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1300,12 +1303,12 @@
       <c r="AG6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AI6" s="19">
         <f t="shared" si="0"/>
-        <v>-30.200749362499163</v>
+        <v>-469.32335483870963</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1402,12 +1405,12 @@
       <c r="AG7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AI7" s="20">
+      <c r="AI7" s="19">
         <f t="shared" si="0"/>
-        <v>-30.200749362499163</v>
+        <v>-469.32335483870963</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1504,12 +1507,12 @@
       <c r="AG8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AI8" s="20">
+      <c r="AI8" s="19">
         <f t="shared" si="0"/>
-        <v>-30.200749362499163</v>
+        <v>-469.32335483870963</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1606,12 +1609,12 @@
       <c r="AG9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AI9" s="20">
+      <c r="AI9" s="19">
         <f>-1*($C$36/(2*$C$33))*($C$35+$C$34*$C$36)</f>
-        <v>-15.100374681249582</v>
+        <v>-234.66167741935482</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1708,12 +1711,12 @@
       <c r="AG10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AI10" s="20">
+      <c r="AI10" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
         <v>-6.7410322580645161</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1810,12 +1813,12 @@
       <c r="AG11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AI11" s="20">
+      <c r="AI11" s="19">
         <f>-1*$C$34*$C$36^2/($C$33)</f>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1912,12 +1915,12 @@
       <c r="AG12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AI12" s="20">
+      <c r="AI12" s="19">
         <f t="shared" ref="AI12:AI16" si="1">-1*$C$34*$C$36^2/($C$33)</f>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2014,12 +2017,12 @@
       <c r="AG13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AI13" s="20">
+      <c r="AI13" s="19">
         <f t="shared" si="1"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2116,12 +2119,12 @@
       <c r="AG14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AI14" s="20">
+      <c r="AI14" s="19">
         <f t="shared" si="1"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2218,12 +2221,12 @@
       <c r="AG15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AI15" s="20">
+      <c r="AI15" s="19">
         <f t="shared" si="1"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2320,12 +2323,12 @@
       <c r="AG16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AI16" s="20">
+      <c r="AI16" s="19">
         <f t="shared" si="1"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2422,12 +2425,12 @@
       <c r="AG17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AI17" s="20">
+      <c r="AI17" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
         <v>-6.7410322580645161</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2524,12 +2527,12 @@
       <c r="AG18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AI18" s="20">
+      <c r="AI18" s="19">
         <f>-1*$C$34*$C$36^2/($C$33)</f>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2626,12 +2629,12 @@
       <c r="AG19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="AI19" s="20">
+      <c r="AI19" s="19">
         <f t="shared" ref="AI19:AI22" si="2">-1*$C$34*$C$36^2/($C$33)</f>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2728,12 +2731,12 @@
       <c r="AG20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AI20" s="20">
+      <c r="AI20" s="19">
         <f t="shared" si="2"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2830,12 +2833,12 @@
       <c r="AG21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AI21" s="20">
+      <c r="AI21" s="19">
         <f t="shared" si="2"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2932,12 +2935,12 @@
       <c r="AG22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AI22" s="20">
+      <c r="AI22" s="19">
         <f t="shared" si="2"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3034,12 +3037,12 @@
       <c r="AG23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AI23" s="20">
+      <c r="AI23" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
         <v>-6.7410322580645161</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3136,12 +3139,12 @@
       <c r="AG24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AI24" s="20">
+      <c r="AI24" s="19">
         <f>-1*$C$34*$C$36^2/($C$33)</f>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3238,12 +3241,12 @@
       <c r="AG25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AI25" s="20">
+      <c r="AI25" s="19">
         <f t="shared" ref="AI25:AI27" si="3">-1*$C$34*$C$36^2/($C$33)</f>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3340,12 +3343,12 @@
       <c r="AG26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AI26" s="20">
+      <c r="AI26" s="19">
         <f t="shared" si="3"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3442,12 +3445,12 @@
       <c r="AG27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AI27" s="20">
+      <c r="AI27" s="19">
         <f t="shared" si="3"/>
         <v>-13.482064516129032</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3544,12 +3547,12 @@
       <c r="AG28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AI28" s="20">
+      <c r="AI28" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
         <v>-6.7410322580645161</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" ht="15" thickBot="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3855,1248 +3858,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4">
       <c r="B33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="15">
+        <v>30</v>
+      </c>
+      <c r="C33" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>43</v>
+      <c r="D33" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4">
       <c r="B34" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>522.42999999999995</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>42</v>
+      <c r="D34" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4">
       <c r="B35" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <f>7327/C38/1000</f>
-        <v>25.913961511873712</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>45</v>
+        <v>706.55399999999997</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="16">
+    <row r="36" spans="2:4">
+      <c r="B36" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="15">
         <v>0.04</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>39</v>
+      <c r="D36" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
-        <v>40</v>
+    <row r="37" spans="2:4">
+      <c r="B37" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C37">
         <f>632+273.15</f>
         <v>905.15</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>41</v>
+      <c r="D37" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <f>(0.3)^2*PI()</f>
-        <v>0.28274333882308139</v>
-      </c>
+    <row r="38" spans="2:4">
+      <c r="B38" s="17"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="16">
-        <f>C36/C33</f>
-        <v>0.64516129032258063</v>
-      </c>
+    <row r="40" spans="2:4">
+      <c r="C40" s="15"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="15">
-        <f>54000000*0.689*0.531/0.027227136331112</f>
-        <v>725613805.27649188</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <f>(10.8/3600)*1000</f>
-        <v>3</v>
-      </c>
+    <row r="43" spans="2:4">
+      <c r="C43" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <ignoredErrors>
     <ignoredError sqref="AI17 AI23" formula="1"/>
   </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI31"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE43" sqref="AE43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="3"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="11"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="6"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="12"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="6"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI4" s="12"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="6"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="12"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="6"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="12"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="6"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI7" s="12"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="6"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI8" s="12"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="6"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI9" s="12"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="6"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI10" s="12"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="6"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI11" s="12"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="6"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI12" s="12"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="6"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI13" s="12"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="6"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI14" s="12"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="6"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI15" s="12"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="6"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI16" s="12"/>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="6"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI17" s="12"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="6"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI18" s="12"/>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="6"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI19" s="12"/>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="6"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI20" s="12"/>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="6"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI21" s="12"/>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="6"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI22" s="12"/>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="6"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI23" s="12"/>
-    </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="6"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI24" s="12"/>
-    </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="6"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI25" s="12"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="6"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI26" s="12"/>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="6"/>
-      <c r="AG27" s="12"/>
-      <c r="AH27" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI27" s="12"/>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="6"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI28" s="12"/>
-    </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="6"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI29" s="12"/>
-    </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="6"/>
-      <c r="AG30" s="12"/>
-      <c r="AH30" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI30" s="12"/>
-    </row>
-    <row r="31" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="9"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI31" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="14"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/3 & 4 2D Conduction Project.xlsx
+++ b/3 & 4 2D Conduction Project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="2020" windowWidth="31900" windowHeight="22660"/>
+    <workbookView xWindow="7040" yWindow="2220" windowWidth="31900" windowHeight="22660"/>
   </bookViews>
   <sheets>
     <sheet name="AT=C" sheetId="1" r:id="rId1"/>
@@ -330,8 +330,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,15 +405,57 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -676,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,12 +772,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="AI42" sqref="AI42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -897,7 +981,7 @@
       </c>
       <c r="AI2" s="18">
         <f>-1*($C$36/$C$33)*($C$35+$C$34*$C$36/2)</f>
-        <v>-462.58232258064515</v>
+        <v>-6285190.9677419355</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -999,7 +1083,7 @@
       </c>
       <c r="AI3" s="19">
         <f>-1*($C$36/$C$33)*($C$35+$C$34*$C$36)</f>
-        <v>-469.32335483870963</v>
+        <v>-13026223.22580645</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1101,7 +1185,7 @@
       </c>
       <c r="AI4" s="19">
         <f t="shared" ref="AI4:AI8" si="0">-1*($C$36/$C$33)*($C$35+$C$34*$C$36)</f>
-        <v>-469.32335483870963</v>
+        <v>-13026223.22580645</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1203,7 +1287,7 @@
       </c>
       <c r="AI5" s="19">
         <f t="shared" si="0"/>
-        <v>-469.32335483870963</v>
+        <v>-13026223.22580645</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1305,7 +1389,7 @@
       </c>
       <c r="AI6" s="19">
         <f t="shared" si="0"/>
-        <v>-469.32335483870963</v>
+        <v>-13026223.22580645</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1407,7 +1491,7 @@
       </c>
       <c r="AI7" s="19">
         <f t="shared" si="0"/>
-        <v>-469.32335483870963</v>
+        <v>-13026223.22580645</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1509,7 +1593,7 @@
       </c>
       <c r="AI8" s="19">
         <f t="shared" si="0"/>
-        <v>-469.32335483870963</v>
+        <v>-13026223.22580645</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1611,7 +1695,7 @@
       </c>
       <c r="AI9" s="19">
         <f>-1*($C$36/(2*$C$33))*($C$35+$C$34*$C$36)</f>
-        <v>-234.66167741935482</v>
+        <v>-6513111.6129032252</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1713,7 +1797,7 @@
       </c>
       <c r="AI10" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
-        <v>-6.7410322580645161</v>
+        <v>-6741032.2580645159</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1815,7 +1899,7 @@
       </c>
       <c r="AI11" s="19">
         <f>-1*$C$34*$C$36^2/($C$33)</f>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1917,7 +2001,7 @@
       </c>
       <c r="AI12" s="19">
         <f t="shared" ref="AI12:AI16" si="1">-1*$C$34*$C$36^2/($C$33)</f>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2019,7 +2103,7 @@
       </c>
       <c r="AI13" s="19">
         <f t="shared" si="1"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2121,7 +2205,7 @@
       </c>
       <c r="AI14" s="19">
         <f t="shared" si="1"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2223,7 +2307,7 @@
       </c>
       <c r="AI15" s="19">
         <f t="shared" si="1"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2325,7 +2409,7 @@
       </c>
       <c r="AI16" s="19">
         <f t="shared" si="1"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2427,7 +2511,7 @@
       </c>
       <c r="AI17" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
-        <v>-6.7410322580645161</v>
+        <v>-6741032.2580645159</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2529,7 +2613,7 @@
       </c>
       <c r="AI18" s="19">
         <f>-1*$C$34*$C$36^2/($C$33)</f>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2631,7 +2715,7 @@
       </c>
       <c r="AI19" s="19">
         <f t="shared" ref="AI19:AI22" si="2">-1*$C$34*$C$36^2/($C$33)</f>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2733,7 +2817,7 @@
       </c>
       <c r="AI20" s="19">
         <f t="shared" si="2"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2835,7 +2919,7 @@
       </c>
       <c r="AI21" s="19">
         <f t="shared" si="2"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2937,7 +3021,7 @@
       </c>
       <c r="AI22" s="19">
         <f t="shared" si="2"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3039,7 +3123,7 @@
       </c>
       <c r="AI23" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
-        <v>-6.7410322580645161</v>
+        <v>-6741032.2580645159</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3141,7 +3225,7 @@
       </c>
       <c r="AI24" s="19">
         <f>-1*$C$34*$C$36^2/($C$33)</f>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3243,7 +3327,7 @@
       </c>
       <c r="AI25" s="19">
         <f t="shared" ref="AI25:AI27" si="3">-1*$C$34*$C$36^2/($C$33)</f>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3345,7 +3429,7 @@
       </c>
       <c r="AI26" s="19">
         <f t="shared" si="3"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3447,7 +3531,7 @@
       </c>
       <c r="AI27" s="19">
         <f t="shared" si="3"/>
-        <v>-13.482064516129032</v>
+        <v>-13482064.516129032</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3549,7 +3633,7 @@
       </c>
       <c r="AI28" s="19">
         <f>-1*$C$34*$C$36^2/(2*$C$33)</f>
-        <v>-6.7410322580645161</v>
+        <v>-6741032.2580645159</v>
       </c>
     </row>
     <row r="29" spans="1:35">
@@ -3873,8 +3957,9 @@
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
-        <v>522.42999999999995</v>
+      <c r="C34" s="14">
+        <f>522430000</f>
+        <v>522430000</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>37</v>
@@ -3885,7 +3970,8 @@
         <v>32</v>
       </c>
       <c r="C35">
-        <v>706.55399999999997</v>
+        <f>-706554</f>
+        <v>-706554</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>39</v>
